--- a/Agile Planning for Software Products/Module 2 - Project Planning/Sumitted-C4-Release-Plan-User-Stories-V2.xlsx
+++ b/Agile Planning for Software Products/Module 2 - Project Planning/Sumitted-C4-Release-Plan-User-Stories-V2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asangari\Downloads\New folder (3)\Coursera-ProductManagement\Agile Planning for Software Products\Module 2 - Project Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asangari\Downloads\Coursera-ProductManagement\Agile Planning for Software Products\Module 2 - Project Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -165,6 +165,12 @@
   </si>
   <si>
     <t>At the end of this sprint, all Must Dos are completed. By end of this sprint, risk is significantly decreased.</t>
+  </si>
+  <si>
+    <t>1, 2</t>
+  </si>
+  <si>
+    <t>DEPENDENCIES</t>
   </si>
 </sst>
 </file>
@@ -403,13 +409,40 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -417,33 +450,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -759,61 +765,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="61.6640625" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="15" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:7" s="13" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="22"/>
-    </row>
-    <row r="2" spans="1:6" s="15" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="18"/>
+    </row>
+    <row r="2" spans="1:7" s="13" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="22" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" s="15" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="13" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
-    </row>
-    <row r="4" spans="1:6" s="6" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="24"/>
+    </row>
+    <row r="4" spans="1:7" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="2">
         <v>5</v>
@@ -827,11 +839,12 @@
       <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" s="6" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="2">
         <v>19</v>
@@ -845,11 +858,12 @@
       <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" s="6" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" s="6" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="2">
         <v>15</v>
@@ -863,11 +877,12 @@
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" s="6" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" s="6" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="8">
         <v>16</v>
@@ -881,24 +896,26 @@
       <c r="E7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:6" s="15" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="13" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14"/>
-    </row>
-    <row r="10" spans="1:6" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="24"/>
+    </row>
+    <row r="10" spans="1:7" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="2">
         <v>8</v>
@@ -912,11 +929,12 @@
       <c r="E10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="2">
         <v>1</v>
@@ -930,11 +948,12 @@
       <c r="E11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="2">
         <v>2</v>
@@ -948,374 +967,418 @@
       <c r="E12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2">
-        <v>9</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8">
+        <v>20</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="8">
+        <v>5</v>
+      </c>
+      <c r="G13" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="13" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
+    </row>
+    <row r="16" spans="1:7" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2">
+        <v>21</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="2">
+        <v>5</v>
+      </c>
+      <c r="G16" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2">
         <v>22</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2">
-        <v>12</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="6" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8">
-        <v>3</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:6" s="15" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17"/>
-    </row>
-    <row r="18" spans="1:6" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="2">
+        <v>5</v>
+      </c>
+      <c r="G17" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="2">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="2">
+        <v>2</v>
+      </c>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="2">
+        <v>3</v>
+      </c>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8">
+        <v>25</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="8">
+        <v>3</v>
+      </c>
+      <c r="G20" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:7" s="13" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:7" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2">
+        <v>18</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="2">
+        <v>3</v>
+      </c>
+      <c r="G23" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2">
         <v>7</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2">
-        <v>22</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2">
-        <v>17</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="C24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="5">
+      <c r="E24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8">
-        <v>13</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:6" s="15" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="19"/>
-    </row>
-    <row r="25" spans="1:6" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="2">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="5">
+        <v>16</v>
+      </c>
+      <c r="F25" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G25" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="5">
+        <v>11</v>
+      </c>
+      <c r="F27" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="2">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="2">
+        <v>2</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8">
+        <v>11</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="8">
+        <v>2</v>
+      </c>
+      <c r="G29" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:7" s="13" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="15"/>
+    </row>
+    <row r="32" spans="1:7" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2">
         <v>23</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="5">
+      <c r="C32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="2">
+        <v>5</v>
+      </c>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2">
+        <v>14</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="2">
-        <v>4</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="2">
-        <v>11</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
-      <c r="B31" s="8">
-        <v>14</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="1:6" s="15" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="19"/>
-    </row>
-    <row r="34" spans="1:6" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="2">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="F34" s="2">
+        <v>3</v>
+      </c>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7" s="6" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="6" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="F35" s="2">
+        <v>5</v>
+      </c>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="8">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>32</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F36" s="11">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="F36" s="8">
+        <v>2</v>
+      </c>
+      <c r="G36" s="11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B15:G15"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
